--- a/SeguimientoCartera/factsheet/factsheet.xlsx
+++ b/SeguimientoCartera/factsheet/factsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_JSM\SeguimientoCartera\03_Fuentes\markets_data\SeguimientoCartera\factsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140850EA-E14C-4EEC-9555-1CA725E0D7A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A637B4-2A59-41EB-B30E-2A82EBAF9B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>MSCI ACWI IMI</t>
   </si>
@@ -84,13 +84,19 @@
     <t>Market Cap EU Format</t>
   </si>
   <si>
-    <t>Small Cap</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
     <t>Aportación</t>
+  </si>
+  <si>
+    <t>https://www.msci.com/documents/10199/a67b0d43-0289-4bce-8499-0c102eaa8399</t>
+  </si>
+  <si>
+    <t>8,670,294.92</t>
+  </si>
+  <si>
+    <t>MSCI Small Cap</t>
   </si>
 </sst>
 </file>
@@ -192,17 +198,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,6 +223,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -505,158 +514,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I8"/>
+  <dimension ref="B3:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f>VALUE(  SUBSTITUTE(  SUBSTITUTE(  D4,",",""  ),  ".",","  )  )</f>
         <v>78252004.299999997</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f>E4*100/E4</f>
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f t="shared" ref="E5:E7" si="0">VALUE(  SUBSTITUTE(  SUBSTITUTE(  D5,",",""  ),  ".",","  )  )</f>
         <v>68431358.120000005</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f>E5*100/E4</f>
         <v>87.449974901154064</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8">
         <v>12372.376</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>60265055.509999998</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f>E6*100/E4</f>
         <v>77.014072737303678</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <f>I5*F6/100</f>
         <v>9528.4706519727042</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>8166302.6100000003</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6">
+        <f>E5-E6</f>
+        <v>8166302.6100000069</v>
+      </c>
+      <c r="F7" s="6">
         <f>E7*100/E4</f>
-        <v>10.43590216385039</v>
-      </c>
-      <c r="I7" s="8">
+        <v>10.435902163850399</v>
+      </c>
+      <c r="I7" s="6">
         <f>I5*F7/100</f>
-        <v>1291.1690547037063</v>
+        <v>1291.1690547037074</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6">
         <f>E4-E5</f>
         <v>9820646.1799999923</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f>E8*100/E4</f>
         <v>12.550025098845927</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <f>I5*F8/100</f>
         <v>1552.7362933235897</v>
       </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8">
+        <v>12372.376</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13:E15" si="1">VALUE(  SUBSTITUTE(  SUBSTITUTE(  D13,",",""  ),  ".",","  )  )</f>
+        <v>60265055.509999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f>E13*100/(E13+E14+E15)</f>
+        <v>78.163117305325144</v>
+      </c>
+      <c r="I13" s="6">
+        <f>I12*F13/100</f>
+        <v>9670.6347663358956</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
+        <v>8166302.6100000003</v>
+      </c>
+      <c r="F14" s="6">
+        <f>E14*100/(E13+E14+E15)</f>
+        <v>10.591605092777138</v>
+      </c>
+      <c r="I14" s="6">
+        <f>I12*F14/100</f>
+        <v>1310.4332065135363</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
+        <v>8670294.9199999999</v>
+      </c>
+      <c r="F15" s="6">
+        <f>E15*100/(E13+E14+E15)</f>
+        <v>11.245277601897703</v>
+      </c>
+      <c r="I15" s="6">
+        <f>I12*F15/100</f>
+        <v>1391.3080271505669</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{50CA3368-FD8C-4625-843B-F0A9CE6B83ED}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{4E63B412-3AFB-49ED-B0DB-F73EA0C77625}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{FD58AC09-3C40-4F19-8073-51EAD9D1F067}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{0AD30BC3-CBB8-4D1C-A3F3-6D96D06537F4}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{9CC6A982-E2FC-480F-BB7B-3914E38F2F51}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{841A9630-6C65-4B09-B503-163F84E93C92}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{0819A80F-E383-4FA1-ADE6-1518BDA217E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/SeguimientoCartera/factsheet/factsheet.xlsx
+++ b/SeguimientoCartera/factsheet/factsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_JSM\SeguimientoCartera\03_Fuentes\markets_data\SeguimientoCartera\factsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A637B4-2A59-41EB-B30E-2A82EBAF9B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E97863-3A17-4C57-B514-E2993E9ACB4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,18 +54,6 @@
     <t>https://www.msci.com/documents/10199/c0db0a48-01f2-4ba9-ad01-226fd5678111</t>
   </si>
   <si>
-    <t>78,252,004.30</t>
-  </si>
-  <si>
-    <t>68,431,358.12</t>
-  </si>
-  <si>
-    <t>60,265,055.51</t>
-  </si>
-  <si>
-    <t>8,166,302.61</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -93,10 +81,22 @@
     <t>https://www.msci.com/documents/10199/a67b0d43-0289-4bce-8499-0c102eaa8399</t>
   </si>
   <si>
-    <t>8,670,294.92</t>
-  </si>
-  <si>
     <t>MSCI Small Cap</t>
+  </si>
+  <si>
+    <t>57,933,707.11</t>
+  </si>
+  <si>
+    <t>7,877,954.01</t>
+  </si>
+  <si>
+    <t>8,400,591.07</t>
+  </si>
+  <si>
+    <t>75,332,149.26</t>
+  </si>
+  <si>
+    <t>65,811,661.12</t>
   </si>
 </sst>
 </file>
@@ -534,19 +534,19 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -557,11 +557,11 @@
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6">
         <f>VALUE(  SUBSTITUTE(  SUBSTITUTE(  D4,",",""  ),  ".",","  )  )</f>
-        <v>78252004.299999997</v>
+        <v>75332149.260000005</v>
       </c>
       <c r="F4" s="6">
         <f>E4*100/E4</f>
@@ -576,174 +576,174 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E7" si="0">VALUE(  SUBSTITUTE(  SUBSTITUTE(  D5,",",""  ),  ".",","  )  )</f>
-        <v>68431358.120000005</v>
+        <f t="shared" ref="E5:E6" si="0">VALUE(  SUBSTITUTE(  SUBSTITUTE(  D5,",",""  ),  ".",","  )  )</f>
+        <v>65811661.119999997</v>
       </c>
       <c r="F5" s="6">
         <f>E5*100/E4</f>
-        <v>87.449974901154064</v>
+        <v>87.361985243323986</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="8">
-        <v>12372.376</v>
+        <v>14008.815000000001</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>60265055.509999998</v>
+        <v>57933707.109999999</v>
       </c>
       <c r="F6" s="6">
         <f>E6*100/E4</f>
-        <v>77.014072737303678</v>
+        <v>76.904359797367078</v>
       </c>
       <c r="I6" s="6">
         <f>I5*F6/100</f>
-        <v>9528.4706519727042</v>
+        <v>10773.389490947529</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6">
         <f>E5-E6</f>
-        <v>8166302.6100000069</v>
+        <v>7877954.0099999979</v>
       </c>
       <c r="F7" s="6">
         <f>E7*100/E4</f>
-        <v>10.435902163850399</v>
+        <v>10.457625445956905</v>
       </c>
       <c r="I7" s="6">
         <f>I5*F7/100</f>
-        <v>1291.1690547037074</v>
+        <v>1464.9894021170278</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6">
         <f>E4-E5</f>
-        <v>9820646.1799999923</v>
+        <v>9520488.140000008</v>
       </c>
       <c r="F8" s="6">
         <f>E8*100/E4</f>
-        <v>12.550025098845927</v>
+        <v>12.638014756676023</v>
       </c>
       <c r="I8" s="6">
         <f>I5*F8/100</f>
-        <v>1552.7362933235897</v>
+        <v>1770.4361069354445</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8">
-        <v>12372.376</v>
+        <v>14008.815000000001</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ref="E13:E15" si="1">VALUE(  SUBSTITUTE(  SUBSTITUTE(  D13,",",""  ),  ".",","  )  )</f>
-        <v>60265055.509999998</v>
+        <v>57933707.109999999</v>
       </c>
       <c r="F13" s="6">
         <f>E13*100/(E13+E14+E15)</f>
-        <v>78.163117305325144</v>
+        <v>78.064882011230068</v>
       </c>
       <c r="I13" s="6">
         <f>I12*F13/100</f>
-        <v>9670.6347663358956</v>
+        <v>10935.964900921499</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>8166302.6100000003</v>
+        <v>7877954.0099999998</v>
       </c>
       <c r="F14" s="6">
         <f>E14*100/(E13+E14+E15)</f>
-        <v>10.591605092777138</v>
+        <v>10.615435831041312</v>
       </c>
       <c r="I14" s="6">
         <f>I12*F14/100</f>
-        <v>1310.4332065135363</v>
+        <v>1487.09676701429</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>8670294.9199999999</v>
+        <v>8400591.0700000003</v>
       </c>
       <c r="F15" s="6">
         <f>E15*100/(E13+E14+E15)</f>
-        <v>11.245277601897703</v>
+        <v>11.319682157728625</v>
       </c>
       <c r="I15" s="6">
         <f>I12*F15/100</f>
-        <v>1391.3080271505669</v>
+        <v>1585.7533320642115</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">

--- a/SeguimientoCartera/factsheet/factsheet.xlsx
+++ b/SeguimientoCartera/factsheet/factsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_JSM\SeguimientoCartera\03_Fuentes\markets_data\SeguimientoCartera\factsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E97863-3A17-4C57-B514-E2993E9ACB4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341A842-624F-4971-980B-FC7F545B76BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,19 +84,19 @@
     <t>MSCI Small Cap</t>
   </si>
   <si>
-    <t>57,933,707.11</t>
-  </si>
-  <si>
-    <t>7,877,954.01</t>
-  </si>
-  <si>
-    <t>8,400,591.07</t>
-  </si>
-  <si>
-    <t>75,332,149.26</t>
-  </si>
-  <si>
-    <t>65,811,661.12</t>
+    <t>73,975,099.83</t>
+  </si>
+  <si>
+    <t>64,968,544.38</t>
+  </si>
+  <si>
+    <t>57,489,627.99</t>
+  </si>
+  <si>
+    <t>7,478,916.39</t>
+  </si>
+  <si>
+    <t>7,948,829.17</t>
   </si>
 </sst>
 </file>
@@ -557,11 +557,11 @@
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6">
         <f>VALUE(  SUBSTITUTE(  SUBSTITUTE(  D4,",",""  ),  ".",","  )  )</f>
-        <v>75332149.260000005</v>
+        <v>73975099.829999998</v>
       </c>
       <c r="F4" s="6">
         <f>E4*100/E4</f>
@@ -576,21 +576,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E6" si="0">VALUE(  SUBSTITUTE(  SUBSTITUTE(  D5,",",""  ),  ".",","  )  )</f>
-        <v>65811661.119999997</v>
+        <v>64968544.380000003</v>
       </c>
       <c r="F5" s="6">
         <f>E5*100/E4</f>
-        <v>87.361985243323986</v>
+        <v>87.82488233108478</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="8">
-        <v>14008.815000000001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,19 +601,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>57933707.109999999</v>
+        <v>57489627.990000002</v>
       </c>
       <c r="F6" s="6">
         <f>E6*100/E4</f>
-        <v>76.904359797367078</v>
+        <v>77.714836643837216</v>
       </c>
       <c r="I6" s="6">
         <f>I5*F6/100</f>
-        <v>10773.389490947529</v>
+        <v>1554.2967328767443</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,15 +624,15 @@
       <c r="D7" s="3"/>
       <c r="E7" s="6">
         <f>E5-E6</f>
-        <v>7877954.0099999979</v>
+        <v>7478916.3900000006</v>
       </c>
       <c r="F7" s="6">
         <f>E7*100/E4</f>
-        <v>10.457625445956905</v>
+        <v>10.11004568724757</v>
       </c>
       <c r="I7" s="6">
         <f>I5*F7/100</f>
-        <v>1464.9894021170278</v>
+        <v>202.20091374495141</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -643,15 +643,15 @@
       <c r="D8" s="3"/>
       <c r="E8" s="6">
         <f>E4-E5</f>
-        <v>9520488.140000008</v>
+        <v>9006555.4499999955</v>
       </c>
       <c r="F8" s="6">
         <f>E8*100/E4</f>
-        <v>12.638014756676023</v>
+        <v>12.17511766891521</v>
       </c>
       <c r="I8" s="6">
         <f>I5*F8/100</f>
-        <v>1770.4361069354445</v>
+        <v>243.50235337830418</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="8">
-        <v>14008.815000000001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -685,19 +685,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ref="E13:E15" si="1">VALUE(  SUBSTITUTE(  SUBSTITUTE(  D13,",",""  ),  ".",","  )  )</f>
-        <v>57933707.109999999</v>
+        <v>57489627.990000002</v>
       </c>
       <c r="F13" s="6">
         <f>E13*100/(E13+E14+E15)</f>
-        <v>78.064882011230068</v>
+        <v>78.842154058907411</v>
       </c>
       <c r="I13" s="6">
         <f>I12*F13/100</f>
-        <v>10935.964900921499</v>
+        <v>1576.8430811781482</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -708,19 +708,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>7877954.0099999998</v>
+        <v>7478916.3899999997</v>
       </c>
       <c r="F14" s="6">
         <f>E14*100/(E13+E14+E15)</f>
-        <v>10.615435831041312</v>
+        <v>10.256700188017126</v>
       </c>
       <c r="I14" s="6">
         <f>I12*F14/100</f>
-        <v>1487.09676701429</v>
+        <v>205.13400376034252</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -731,19 +731,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>8400591.0700000003</v>
+        <v>7948829.1699999999</v>
       </c>
       <c r="F15" s="6">
         <f>E15*100/(E13+E14+E15)</f>
-        <v>11.319682157728625</v>
+        <v>10.901145753075468</v>
       </c>
       <c r="I15" s="6">
         <f>I12*F15/100</f>
-        <v>1585.7533320642115</v>
+        <v>218.02291506150937</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">

--- a/SeguimientoCartera/factsheet/factsheet.xlsx
+++ b/SeguimientoCartera/factsheet/factsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_JSM\SeguimientoCartera\03_Fuentes\markets_data\SeguimientoCartera\factsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341A842-624F-4971-980B-FC7F545B76BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5981CA-9EC3-4DF6-B69B-6D6C8F1A2AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>MSCI ACWI IMI</t>
   </si>
@@ -93,10 +93,13 @@
     <t>57,489,627.99</t>
   </si>
   <si>
-    <t>7,478,916.39</t>
-  </si>
-  <si>
-    <t>7,948,829.17</t>
+    <t>52,988,851.48</t>
+  </si>
+  <si>
+    <t>6,816,813.86</t>
+  </si>
+  <si>
+    <t>7,177,241.80</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -685,19 +690,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ref="E13:E15" si="1">VALUE(  SUBSTITUTE(  SUBSTITUTE(  D13,",",""  ),  ".",","  )  )</f>
-        <v>57489627.990000002</v>
+        <v>52988851.479999997</v>
       </c>
       <c r="F13" s="6">
         <f>E13*100/(E13+E14+E15)</f>
-        <v>78.842154058907411</v>
+        <v>79.108019855347237</v>
       </c>
       <c r="I13" s="6">
         <f>I12*F13/100</f>
-        <v>1576.8430811781482</v>
+        <v>1582.1603971069449</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -708,19 +713,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>7478916.3899999997</v>
+        <v>6816813.8600000003</v>
       </c>
       <c r="F14" s="6">
         <f>E14*100/(E13+E14+E15)</f>
-        <v>10.256700188017126</v>
+        <v>10.176945359735249</v>
       </c>
       <c r="I14" s="6">
         <f>I12*F14/100</f>
-        <v>205.13400376034252</v>
+        <v>203.53890719470499</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -731,19 +736,19 @@
         <v>14</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>7948829.1699999999</v>
+        <v>7177241.7999999998</v>
       </c>
       <c r="F15" s="6">
         <f>E15*100/(E13+E14+E15)</f>
-        <v>10.901145753075468</v>
+        <v>10.715034784917519</v>
       </c>
       <c r="I15" s="6">
         <f>I12*F15/100</f>
-        <v>218.02291506150937</v>
+        <v>214.30069569835038</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
@@ -763,9 +768,9 @@
     <hyperlink ref="C4" r:id="rId1" xr:uid="{50CA3368-FD8C-4625-843B-F0A9CE6B83ED}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{4E63B412-3AFB-49ED-B0DB-F73EA0C77625}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{FD58AC09-3C40-4F19-8073-51EAD9D1F067}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{9CC6A982-E2FC-480F-BB7B-3914E38F2F51}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{0819A80F-E383-4FA1-ADE6-1518BDA217E1}"/>
     <hyperlink ref="C14" r:id="rId5" xr:uid="{841A9630-6C65-4B09-B503-163F84E93C92}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{0819A80F-E383-4FA1-ADE6-1518BDA217E1}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{9CC6A982-E2FC-480F-BB7B-3914E38F2F51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
